--- a/biology/Zoologie/Calumma_juliae/Calumma_juliae.xlsx
+++ b/biology/Zoologie/Calumma_juliae/Calumma_juliae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calumma juliae est une espèce de sauriens de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calumma juliae est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Calumma juliae a été décrite en 2018 par David Prötzel (d), Miguel Vences, Oliver Hawlitschek (d), Mark David Scherz (d), Fanomezana M. Ratsoavina (d) et Frank Glaw[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Calumma juliae a été décrite en 2018 par David Prötzel (d), Miguel Vences, Oliver Hawlitschek (d), Mark David Scherz (d), Fanomezana M. Ratsoavina (d) et Frank Glaw.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tous les spécimens identifiés de Calumma juliae ont été observés autour de la ville de Toamasina, dans l’Est de Madagascar.
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, juliae, lui a été donnée en l'honneur de Julia Forster, en reconnaissance de son aide pour la collecte des spécimens[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, juliae, lui a été donnée en l'honneur de Julia Forster, en reconnaissance de son aide pour la collecte des spécimens.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) David Prötzel, Miguel Vences, Oliver Hawlitschek, Mark D. Scherz, Fanomezana M. Ratsoavina et Frank Glaw, « Endangered beauties: micro-CT cranial osteology, molecular genetics and external morphology reveal three new species of chameleons in the Calumma boettgeri complex (Squamata: Chamaeleonidae) », Zoological Journal of the Linnean Society, Linnean Society of London et OUP, vol. 184, no 2,‎ 9 avril 2018, p. 471-498 (ISSN 1096-3642 et 0024-4082, OCLC 01799617, DOI 10.1093/ZOOLINNEAN/ZLX112, lire en ligne)</t>
         </is>
